--- a/GISData/bin/Debug/Report/造林任务完成情况表模板.xlsx
+++ b/GISData/bin/Debug/Report/造林任务完成情况表模板.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\数据验收平台建设\GISData\GISData\bin\Debug\Report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="HEADERRANGE" localSheetId="0">Sheet1!$A$1:$E$2</definedName>
-    <definedName name="DETAILRANGE" localSheetId="0">Sheet1!$A$3:$E$3</definedName>
+    <definedName name="DETAILRANGE" localSheetId="0">Sheet1!$A$3:$G$3</definedName>
+    <definedName name="HEADERRANGE" localSheetId="0">Sheet1!$A$1:$G$2</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>造林完成情况表</t>
   </si>
@@ -30,20 +37,44 @@
     <t>自查上报年度</t>
   </si>
   <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>面积</t>
+    <t>任务面积</t>
+  </si>
+  <si>
+    <t>上报面积</t>
+  </si>
+  <si>
+    <t>面积差值</t>
+  </si>
+  <si>
+    <t>十多个</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>项目名称1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -51,12 +82,29 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,8 +116,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -83,31 +137,73 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -116,10 +212,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -395,80 +491,107 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.67" customWidth="1"/>
-    <col min="2" max="2" width="13.67" customWidth="1"/>
-    <col min="3" max="3" width="13.67" customWidth="1"/>
-    <col min="4" max="4" width="13.67" customWidth="1"/>
-    <col min="5" max="5" width="13.67" customWidth="1"/>
+    <col min="1" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.8" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="22.8" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="str">
-        <f>FIELD("YZLGLDW")</f>
-        <v>[YZLGLDW]</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f>FIELD("YZLFS")</f>
-        <v>[YZLFS]</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <f>FIELD("ZCSBND")</f>
-        <v>[ZCSBND]</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>FIELD("XMMC")</f>
-        <v>[XMMC]</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f>FIELD("RWMJ")</f>
-        <v>[RWMJ]</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="e">
+        <f ca="1">FIELD("YZLGLDW")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B3" s="4" t="e">
+        <f ca="1">FIELD("YZLFS")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="4" t="e">
+        <f ca="1">FIELD("ZCSBND")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="4" t="e">
+        <f ca="1">FIELD("XMMC")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" s="4" t="e">
+        <f ca="1">FIELD("RWMJ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" s="5" t="e">
+        <f ca="1">FIELD("SBMJ")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" s="5" t="e">
+        <f ca="1">E3-F3</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" t="e">
+        <f>水电费</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXML/dataSources.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <MailMerge Default="0">
   <DataSources>
     <DataSource TypeName="DevExpress.DataAccess.Excel.ExcelDataSource">
@@ -498,4 +621,10 @@
     </DataSource>
   </DataSources>
 </MailMerge>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{051C9BA3-48F5-4E56-B562-ED3E90CC703E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>